--- a/data_raw/VN_BMI_2020-2021.xlsx
+++ b/data_raw/VN_BMI_2020-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/van_norden_aquabio/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F4E9E-8B68-5F4E-8D2E-06CA3A4CFD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDEF85-A682-8D49-B6AF-FB8AE0056DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="500" windowWidth="35600" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29560" yWindow="500" windowWidth="35600" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAFIT level 2a" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="181">
   <si>
     <t>Date:</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>CC21</t>
+  </si>
+  <si>
+    <t>metric</t>
   </si>
 </sst>
 </file>
@@ -1012,9 +1015,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1028,6 +1028,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1539,13 +1542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE90"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56:L63"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3754,30 +3757,23 @@
       <c r="AE55" s="2"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23">
-        <f>COUNT(H$4:H$54)</f>
-        <v>12</v>
-      </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23">
-        <f>COUNT(J$4:J$54)</f>
-        <v>18</v>
-      </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23">
-        <f>COUNT(L$4:L$54)</f>
-        <v>37</v>
+      <c r="D56" s="9"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -3796,28 +3792,29 @@
       <c r="AE56" s="2"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23">
-        <f>COUNT(H$14:H$31)</f>
-        <v>2</v>
-      </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23">
-        <f>COUNT(J$14:J$31)</f>
-        <v>3</v>
-      </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23">
-        <f>COUNT(L$14:L$31)-1</f>
-        <v>13</v>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="20">
+        <f>COUNT(H$4:H$54)</f>
+        <v>12</v>
+      </c>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20">
+        <f>COUNT(J$4:J$54)</f>
+        <v>18</v>
+      </c>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20">
+        <f>COUNT(L$4:L$54)-1</f>
+        <v>36</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -3839,65 +3836,63 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="26">
-        <f>SUMIF($F$14:$F$31,"&lt;4",H$14:H$31)/H$55*100</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="26">
-        <f>SUMIF($F$14:$F$31,"&lt;4",J$14:J$31)/J$55*100</f>
-        <v>6.5495207667731634</v>
-      </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="26">
-        <f>SUMIF($F$14:$F$31,"&lt;4",L$14:L$31)/L$55*100</f>
-        <v>22.203947368421055</v>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="20">
+        <f>COUNT(H$14:H$31)</f>
+        <v>2</v>
+      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20">
+        <f>COUNT(J$14:J$31)</f>
+        <v>3</v>
+      </c>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20">
+        <f>COUNT(L$14:L$31)-1</f>
+        <v>13</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="6"/>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="6"/>
+      <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="2"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="6"/>
+      <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="26">
-        <f>MAX(H$4:H$54)/H$55*100</f>
-        <v>60.129659643435986</v>
-      </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="26">
-        <f>MAX(J$4:J$54)/J$55*100</f>
-        <v>71.884984025559106</v>
-      </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="26">
-        <f>MAX(L$4:L$54)/L$55*100</f>
-        <v>32.07236842105263</v>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="23">
+        <f>SUMIF($F$14:$F$31,"&lt;4",H$14:H$31)/H$55*100</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="20"/>
+      <c r="J59" s="23">
+        <f>SUMIF($F$14:$F$31,"&lt;4",J$14:J$31)/J$55*100</f>
+        <v>6.5495207667731634</v>
+      </c>
+      <c r="K59" s="20"/>
+      <c r="L59" s="23">
+        <f>SUMIF($F$14:$F$31,"&lt;4",L$14:L$31)/L$55*100</f>
+        <v>22.203947368421055</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="6"/>
@@ -3919,39 +3914,38 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="26">
-        <f>SUMPRODUCT($F$4:$F$54/H$55,H$4:H$54)</f>
-        <v>5.9983792544570518</v>
-      </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="26">
-        <f>SUMPRODUCT($F$4:$F$54/J$55,J$4:J$54)</f>
-        <v>3.5543130990415328</v>
-      </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="26">
-        <f>SUMPRODUCT($F$4:$F$54/L$55,L$4:L$54)</f>
-        <v>4.6085526315789469</v>
-      </c>
-      <c r="M60" s="7"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="23">
+        <f>MAX(H$4:H$54)/H$55*100</f>
+        <v>60.129659643435986</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="23">
+        <f>MAX(J$4:J$54)/J$55*100</f>
+        <v>71.884984025559106</v>
+      </c>
+      <c r="K60" s="20"/>
+      <c r="L60" s="23">
+        <f>MAX(L$4:L$54)/L$55*100</f>
+        <v>32.07236842105263</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="7"/>
+      <c r="O60" s="2"/>
       <c r="P60" s="6"/>
-      <c r="Q60" s="7"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="7"/>
+      <c r="S60" s="2"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="7"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="7"/>
+      <c r="Y60" s="2"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
     </row>
@@ -3959,36 +3953,38 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="26">
-        <v>1.2760620917302135</v>
-      </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="26">
-        <v>1.2086277704129487</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="28">
-        <v>2.4359164787289909</v>
-      </c>
-      <c r="M61" s="2"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="23">
+        <f>SUMPRODUCT($F$4:$F$54/H$55,H$4:H$54)</f>
+        <v>5.9983792544570518</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="23">
+        <f>SUMPRODUCT($F$4:$F$54/J$55,J$4:J$54)</f>
+        <v>3.5543130990415328</v>
+      </c>
+      <c r="K61" s="24"/>
+      <c r="L61" s="23">
+        <f>SUMPRODUCT($F$4:$F$54/L$55,L$4:L$54)</f>
+        <v>4.6085526315789469</v>
+      </c>
+      <c r="M61" s="7"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="2"/>
+      <c r="O61" s="7"/>
       <c r="P61" s="6"/>
-      <c r="Q61" s="2"/>
+      <c r="Q61" s="7"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="2"/>
+      <c r="S61" s="7"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="2"/>
+      <c r="W61" s="7"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="2"/>
+      <c r="Y61" s="7"/>
       <c r="AD61" s="6"/>
       <c r="AE61" s="6"/>
     </row>
@@ -3996,22 +3992,21 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="26">
-        <v>15</v>
-      </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="26">
-        <v>15</v>
-      </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="26">
-        <v>12.5</v>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="23">
+        <v>1.2760620917302135</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="23">
+        <v>1.2086277704129487</v>
+      </c>
+      <c r="K62" s="20"/>
+      <c r="L62" s="25">
+        <v>2.4359164787289909</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="6"/>
@@ -4020,161 +4015,148 @@
       <c r="Q62" s="2"/>
       <c r="R62" s="6"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
       <c r="W62" s="2"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="2"/>
-      <c r="AD62" s="8"/>
-      <c r="AE62" s="8"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="30">
-        <f>H55/H62*100</f>
-        <v>4113.333333333333</v>
-      </c>
-      <c r="I63" s="23"/>
-      <c r="J63" s="30">
-        <f>634/J62*100</f>
-        <v>4226.666666666667</v>
-      </c>
-      <c r="K63" s="23"/>
-      <c r="L63" s="30">
-        <f>631/L62*100</f>
-        <v>5048</v>
+      <c r="E63" s="24"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="23">
+        <v>15</v>
+      </c>
+      <c r="I63" s="20"/>
+      <c r="J63" s="23">
+        <v>15</v>
+      </c>
+      <c r="K63" s="20"/>
+      <c r="L63" s="23">
+        <v>12.5</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="8"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="8"/>
+      <c r="P63" s="6"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="8"/>
+      <c r="R63" s="6"/>
       <c r="S63" s="2"/>
       <c r="T63" s="8"/>
-      <c r="U63" s="2"/>
+      <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="8"/>
+      <c r="X63" s="6"/>
       <c r="Y63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="27">
+        <f>H55/H63*100</f>
+        <v>4113.333333333333</v>
+      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="27">
+        <f>634/J63*100</f>
+        <v>4226.666666666667</v>
+      </c>
+      <c r="K64" s="20"/>
+      <c r="L64" s="27">
+        <f>631/L63*100</f>
+        <v>5048</v>
+      </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" s="8"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="P64" s="8"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
+      <c r="T64" s="8"/>
       <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
+      <c r="V64" s="8"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
+      <c r="X64" s="8"/>
       <c r="Y64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="8">
-        <v>2</v>
-      </c>
-      <c r="I65" s="2">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>3</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="L65" s="8">
-        <v>13</v>
-      </c>
-      <c r="M65" s="2">
-        <v>5</v>
-      </c>
-      <c r="N65" s="8"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="8"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="8"/>
+      <c r="R65" s="2"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="8"/>
+      <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="AD65" s="8"/>
+      <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>62</v>
+      <c r="A66" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="8">
-        <f>COUNT(H34:H40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="2">
         <v>0</v>
       </c>
       <c r="J66" s="8">
-        <f>COUNT(J34:J40)</f>
+        <v>3</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8">
+        <v>13</v>
+      </c>
+      <c r="M66" s="2">
         <v>5</v>
-      </c>
-      <c r="K66" s="2">
-        <v>9</v>
-      </c>
-      <c r="L66" s="8">
-        <f>COUNT(L34:L40)</f>
-        <v>4</v>
-      </c>
-      <c r="M66" s="2">
-        <v>7</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="2"/>
@@ -4192,32 +4174,37 @@
       <c r="AE66" s="2"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="8">
-        <v>2</v>
+        <f>COUNT(H34:H40)</f>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" s="8">
+        <f>COUNT(J34:J40)</f>
+        <v>5</v>
+      </c>
+      <c r="K67" s="2">
+        <v>9</v>
+      </c>
+      <c r="L67" s="8">
+        <f>COUNT(L34:L40)</f>
         <v>4</v>
       </c>
-      <c r="K67" s="2">
-        <v>4</v>
-      </c>
-      <c r="L67" s="8">
-        <v>10</v>
-      </c>
       <c r="M67" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="2"/>
@@ -4239,30 +4226,28 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="8">
-        <f>SUMIF($F$4:$F$54,"&lt;3",H$4:H$54)/H$55*100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="8">
-        <f>SUMIF($F$4:$F$54,"&lt;3",J$4:J$54)/J$55*100</f>
-        <v>6.5495207667731634</v>
+        <v>4</v>
       </c>
       <c r="K68" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M68" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="2"/>
@@ -4284,31 +4269,30 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",H$4:H$54)/H$55*100</f>
+        <f>SUMIF($F$4:$F$54,"&lt;3",H$4:H$54)/H$55*100</f>
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",J$4:J$54)/J$55*100</f>
-        <v>0.47923322683706071</v>
+        <f>SUMIF($F$4:$F$54,"&lt;3",J$4:J$54)/J$55*100</f>
+        <v>6.5495207667731634</v>
       </c>
       <c r="K69" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",L$4:L$54)/L$55*100</f>
-        <v>3.125</v>
+        <v>22</v>
       </c>
       <c r="M69" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="2"/>
@@ -4330,28 +4314,31 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="8">
-        <v>4.3760129659643443</v>
+        <f>SUMIF($G$4:$G$54,"sc",H$4:H$54)/H$55*100</f>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
+        <f>SUMIF($G$4:$G$54,"sc",J$4:J$54)/J$55*100</f>
+        <v>0.47923322683706071</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="8">
+        <f>SUMIF($G$4:$G$54,"sc",L$4:L$54)/L$55*100</f>
+        <v>3.125</v>
+      </c>
+      <c r="M70" s="2">
         <v>2</v>
-      </c>
-      <c r="J70" s="8">
-        <v>4.6325878594249197</v>
-      </c>
-      <c r="K70" s="2">
-        <v>2</v>
-      </c>
-      <c r="L70" s="8">
-        <v>17.763157894736842</v>
-      </c>
-      <c r="M70" s="2">
-        <v>8</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="2"/>
@@ -4373,28 +4360,28 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="8">
-        <v>0</v>
+        <v>4.3760129659643443</v>
       </c>
       <c r="I71" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" s="8">
-        <v>11.76470588235294</v>
+        <v>4.6325878594249197</v>
       </c>
       <c r="K71" s="2">
+        <v>2</v>
+      </c>
+      <c r="L71" s="8">
+        <v>17.763157894736842</v>
+      </c>
+      <c r="M71" s="2">
         <v>8</v>
-      </c>
-      <c r="L71" s="8">
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="M71" s="2">
-        <v>2</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="2"/>
@@ -4416,28 +4403,28 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K72" s="2">
+        <v>8</v>
+      </c>
+      <c r="L72" s="8">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="M72" s="2">
         <v>2</v>
-      </c>
-      <c r="J72" s="8">
-        <v>29.411764705882355</v>
-      </c>
-      <c r="K72" s="2">
-        <v>6</v>
-      </c>
-      <c r="L72" s="8">
-        <v>15.151515151515152</v>
-      </c>
-      <c r="M72" s="2">
-        <v>8</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="2"/>
@@ -4459,39 +4446,42 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="H73" s="8">
+        <v>50</v>
+      </c>
       <c r="I73" s="2">
-        <f>SUM(I65:I72)*1.25</f>
-        <v>8.75</v>
-      </c>
-      <c r="J73" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J73" s="8">
+        <v>29.411764705882355</v>
+      </c>
       <c r="K73" s="2">
-        <f>SUM(K65:K72)*1.25</f>
-        <v>41.25</v>
-      </c>
-      <c r="L73" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="L73" s="8">
+        <v>15.151515151515152</v>
+      </c>
       <c r="M73" s="2">
-        <f>SUM(M65:M72)*1.25</f>
-        <v>60</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="N73" s="8"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+      <c r="P73" s="8"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="R73" s="8"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
+      <c r="X73" s="8"/>
       <c r="Y73" s="2"/>
-      <c r="AD73" s="2"/>
+      <c r="AD73" s="8"/>
       <c r="AE73" s="2"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
@@ -4499,17 +4489,26 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2">
+        <f>SUM(I66:I73)*1.25</f>
+        <v>8.75</v>
+      </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
+      <c r="K74" s="2">
+        <f>SUM(K66:K73)*1.25</f>
+        <v>41.25</v>
+      </c>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="M74" s="2">
+        <f>SUM(M66:M73)*1.25</f>
+        <v>60</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -4526,75 +4525,106 @@
       <c r="AE74" s="2"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4602,7 +4632,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="L66" formulaRange="1"/>
+    <ignoredError sqref="L67" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4616,11 +4646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A1F849-7C59-F348-BC2E-5BF6AA3DD03C}">
   <dimension ref="A1:AB71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5930,57 +5960,61 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
+    <row r="36" spans="1:28" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="G36" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="G37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23">
+      <c r="H37" s="20">
         <f>COUNT(H$4:H$34)</f>
         <v>10</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="20">
         <f>COUNT(I$4:I$34)</f>
         <v>14</v>
       </c>
-      <c r="J37" s="23">
+      <c r="J37" s="20">
         <f>COUNT(J$4:J$34)</f>
         <v>23</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="K37" s="28"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5996,28 +6030,26 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23">
+      <c r="H38" s="20">
         <f>COUNT(H$12:H$23)</f>
         <v>2</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="20">
         <f>COUNT(I$12:I$23)</f>
         <v>3</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J38" s="20">
         <f>COUNT(J$12:J$23)-1</f>
         <v>9</v>
       </c>
-      <c r="K38" s="31"/>
+      <c r="K38" s="28"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6033,28 +6065,26 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="26">
+      <c r="H39" s="23">
         <f>SUMIF($F$12:$F$23,"&lt;4",H$12:H$23)/H$35*100</f>
         <v>0.64829821717990277</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="23">
         <f>SUMIF($F$12:$F$23,"&lt;4",I$12:I$23)/I$35*100</f>
         <v>6.5495207667731634</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="23">
         <f>SUMIF($F$12:$F$23,"&lt;4",J$12:J$23)/J$35*100</f>
         <v>31.414473684210524</v>
       </c>
-      <c r="K39" s="34"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="2"/>
       <c r="M39" s="6"/>
       <c r="N39" s="2"/>
@@ -6070,28 +6100,26 @@
       <c r="AB39" s="6"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24" t="s">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="26">
+      <c r="H40" s="23">
         <f>MAX(H$4:H$34)/H$35*100</f>
         <v>70.502431118314419</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="23">
         <f>MAX(I$4:I$34)/I$35*100</f>
         <v>77.156549520766774</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="23">
         <f>MAX(J$4:J$34)/J$35*100</f>
         <v>32.236842105263158</v>
       </c>
-      <c r="K40" s="34"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="2"/>
       <c r="M40" s="6"/>
       <c r="N40" s="2"/>
@@ -6107,28 +6135,26 @@
       <c r="AB40" s="6"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="26">
+      <c r="H41" s="23">
         <f>SUMPRODUCT($F$4:$F$34/H$35,H$4:H$34)</f>
         <v>5.8525121555915725</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="23">
         <f>SUMPRODUCT($F$4:$F$34/I$35,I$4:I$34)</f>
         <v>3.4249201277955272</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="23">
         <f>SUMPRODUCT($F$4:$F$34/J$35,J$4:J$34)</f>
         <v>3.5986842105263155</v>
       </c>
-      <c r="K41" s="34"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="7"/>
       <c r="M41" s="6"/>
       <c r="N41" s="7"/>
@@ -6144,25 +6170,23 @@
       <c r="AB41" s="6"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="G42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23">
+      <c r="H42" s="20">
         <v>0.9732305</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="23">
         <v>0.97510529999999995</v>
       </c>
-      <c r="J42" s="23">
+      <c r="J42" s="20">
         <v>1.9674252999999999</v>
       </c>
-      <c r="K42" s="34"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="2"/>
       <c r="M42" s="6"/>
       <c r="N42" s="2"/>
@@ -6178,25 +6202,23 @@
       <c r="AB42" s="6"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="29" t="s">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="E43" s="24"/>
+      <c r="G43" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26">
+      <c r="H43" s="23">
         <v>15</v>
       </c>
-      <c r="I43" s="26">
+      <c r="I43" s="23">
         <v>15</v>
       </c>
-      <c r="J43" s="26">
+      <c r="J43" s="23">
         <v>12.5</v>
       </c>
-      <c r="K43" s="34"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="2"/>
       <c r="M43" s="6"/>
       <c r="N43" s="2"/>
@@ -6212,28 +6234,26 @@
       <c r="AB43" s="8"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="29" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="G44" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="30">
+      <c r="H44" s="27">
         <f>H35/H43*100</f>
         <v>4113.333333333333</v>
       </c>
-      <c r="I44" s="30">
+      <c r="I44" s="27">
         <f>634/I43*100</f>
         <v>4226.666666666667</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="27">
         <f>631/J43*100</f>
         <v>5048</v>
       </c>
-      <c r="K44" s="35"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="2"/>
       <c r="M44" s="8"/>
       <c r="N44" s="2"/>
@@ -6616,8 +6636,8 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6650,14 +6670,14 @@
       <c r="A2" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2">
-        <v>15</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>127</v>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -6667,14 +6687,14 @@
       <c r="A3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>114</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>127</v>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11">
+        <v>371</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6684,13 +6704,13 @@
       <c r="A4" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E4">
@@ -6702,32 +6722,29 @@
         <v>172</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E5">
         <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>33</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>114</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>127</v>
       </c>
       <c r="E6">
@@ -6738,11 +6755,11 @@
       <c r="A7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>128</v>
@@ -6750,20 +6767,19 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>128</v>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6774,7 +6790,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
@@ -6790,11 +6806,11 @@
       <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
+      <c r="B10" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C10" s="11">
-        <v>371</v>
+        <v>4</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>128</v>
@@ -6808,10 +6824,10 @@
         <v>172</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>128</v>
@@ -6824,7 +6840,7 @@
       <c r="A12" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="11">
@@ -6840,7 +6856,7 @@
         <f>SUM(C$2:C$13)</f>
         <v>617</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>617</v>
       </c>
     </row>
@@ -6848,23 +6864,26 @@
       <c r="A13" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>128</v>
+      <c r="B13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E13">
         <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G13">
         <f>COUNT(C$2:C$13)</f>
         <v>12</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>12</v>
       </c>
     </row>
@@ -6872,14 +6891,14 @@
       <c r="A14" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11">
+        <v>13</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -6889,14 +6908,14 @@
       <c r="A15" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>36</v>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -6907,13 +6926,13 @@
         <v>173</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -6923,34 +6942,34 @@
       <c r="A17" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
+      <c r="B17" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>117</v>
+      <c r="F17" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>127</v>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11">
+        <v>15</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -6960,52 +6979,48 @@
       <c r="A19" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>115</v>
+      <c r="B19" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>135</v>
+      <c r="B20" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C20" s="11">
-        <v>4</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="E20">
         <v>0</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="11">
-        <v>37</v>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -7015,14 +7030,14 @@
       <c r="A22" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="11">
-        <v>13</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>128</v>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -7032,14 +7047,14 @@
       <c r="A23" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>137</v>
+      <c r="B23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C23" s="11">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -7049,14 +7064,14 @@
       <c r="A24" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>81</v>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="33">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -7066,14 +7081,14 @@
       <c r="A25" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>119</v>
+      <c r="B25" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="11">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>81</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -7083,14 +7098,14 @@
       <c r="A26" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>120</v>
+      <c r="B26" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>81</v>
+        <v>440</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -7101,13 +7116,13 @@
         <v>173</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C27" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -7117,14 +7132,14 @@
       <c r="A28" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>38</v>
+      <c r="B28" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="11">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -7134,14 +7149,14 @@
       <c r="A29" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="11">
-        <v>15</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>128</v>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -7151,31 +7166,32 @@
       <c r="A30" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>39</v>
+      <c r="B30" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C30" s="11">
-        <v>15</v>
-      </c>
-      <c r="D30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="11">
-        <v>440</v>
+      <c r="B31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -7185,31 +7201,34 @@
       <c r="A32" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="11">
-        <v>10</v>
+      <c r="B32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="11">
-        <v>27</v>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7226,14 +7245,14 @@
       <c r="A34" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6</v>
+      <c r="B34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -7250,32 +7269,31 @@
       <c r="A35" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>127</v>
+      <c r="B35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="11">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>174</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>127</v>
+      <c r="B36" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -7286,27 +7304,28 @@
         <v>174</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="2">
+        <v>155</v>
+      </c>
+      <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>127</v>
+      <c r="D37" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>174</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="8">
-        <v>2</v>
+      <c r="B38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>127</v>
@@ -7320,38 +7339,34 @@
         <v>174</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="C39">
+        <v>54</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="2">
-        <v>6</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="B40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="11">
+        <v>4</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -7360,7 +7375,7 @@
       <c r="B41" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>49</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -7369,98 +7384,90 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>174</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="2">
-        <v>54</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="11">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
         <v>128</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>148</v>
+      <c r="B43" t="s">
+        <v>23</v>
       </c>
       <c r="C43" s="11">
-        <v>2</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>116</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>174</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>35</v>
+      <c r="B45" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C45" s="11">
-        <v>6</v>
-      </c>
-      <c r="D45" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" t="s">
         <v>128</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>174</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>97</v>
+      <c r="B46" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C46" s="11">
-        <v>12</v>
-      </c>
-      <c r="D46" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E46">
         <v>0</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -7468,10 +7475,10 @@
         <v>174</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="C47" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>128</v>
@@ -7479,19 +7486,17 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>106</v>
-      </c>
+      <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>174</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>92</v>
+      <c r="B48" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C48" s="11">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>128</v>
@@ -7499,11 +7504,9 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -7523,105 +7526,100 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>174</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>152</v>
+      <c r="B50" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C50" s="11">
-        <v>5</v>
-      </c>
-      <c r="D50" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>155</v>
+      <c r="B51" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C51" s="11">
-        <v>1</v>
-      </c>
-      <c r="D51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="C52" s="11">
-        <v>8</v>
-      </c>
-      <c r="D52" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1</v>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>174</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="C54" s="13">
-        <v>2</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>80</v>
+      <c r="B55" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C55" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="19" t="s">
         <v>128</v>
@@ -7630,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>174</v>
       </c>
@@ -7638,109 +7636,114 @@
         <v>107</v>
       </c>
       <c r="C56" s="11">
-        <v>3</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>174</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C57" s="11">
-        <v>1</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>81</v>
+        <v>5</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>81</v>
+      <c r="B58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="11">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>128</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="2">
-        <v>12</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>128</v>
+      <c r="B59" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="11">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="12" t="s">
-        <v>90</v>
+      <c r="B60" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C60" s="11">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>174</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>38</v>
+      <c r="B61" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C61" s="11">
-        <v>4</v>
-      </c>
-      <c r="D61" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F61" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>174</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C62" s="11">
         <v>1</v>
@@ -7752,53 +7755,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>174</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="11">
-        <v>85</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="B63" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>174</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="11">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
+      <c r="B64" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="13">
+        <v>2</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>101</v>
+      <c r="B65" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C65" s="11">
-        <v>29</v>
-      </c>
-      <c r="D65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E65">
@@ -7809,14 +7812,14 @@
       <c r="A66" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>39</v>
+      <c r="B66" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C66" s="11">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -7826,14 +7829,14 @@
       <c r="A67" t="s">
         <v>174</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="11">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
+      <c r="B67" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -7843,14 +7846,14 @@
       <c r="A68" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" s="11">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>128</v>
+      <c r="B68" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="33">
+        <v>2</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -7860,25 +7863,28 @@
       <c r="A69" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>24</v>
+      <c r="B69" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C69" s="11">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
+        <v>12</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E69">
         <v>0</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>158</v>
+      <c r="B70" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="11">
         <v>1</v>
@@ -7894,13 +7900,13 @@
       <c r="A71" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>160</v>
+      <c r="B71" t="s">
+        <v>24</v>
       </c>
       <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
         <v>128</v>
       </c>
       <c r="E71">
@@ -7911,14 +7917,14 @@
       <c r="A72" t="s">
         <v>174</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>138</v>
+      <c r="B72" t="s">
+        <v>24</v>
       </c>
       <c r="C72" s="11">
-        <v>1</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>128</v>
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -7928,47 +7934,51 @@
       <c r="A73" t="s">
         <v>174</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="11">
-        <v>194</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>128</v>
+      <c r="B73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>127</v>
       </c>
       <c r="E73">
         <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>48</v>
+      <c r="B74" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C74" s="11">
-        <v>1</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>116</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>128</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
+      <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="11">
-        <v>1</v>
-      </c>
-      <c r="D75" s="11" t="s">
+      <c r="B75" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
         <v>128</v>
       </c>
       <c r="E75">
@@ -7979,14 +7989,14 @@
       <c r="A76" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>161</v>
+      <c r="B76" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C76" s="11">
-        <v>1</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7995,7 +8005,7 @@
         <f>SUM(C$35:C$77)</f>
         <v>608</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76">
         <v>608</v>
       </c>
     </row>
@@ -8003,23 +8013,26 @@
       <c r="A77" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>102</v>
+      <c r="B77" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C77" s="11">
-        <v>5</v>
-      </c>
-      <c r="D77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="19" t="s">
         <v>128</v>
       </c>
       <c r="E77">
         <v>0</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G77">
         <f>COUNT(C$35:C$77)</f>
         <v>43</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77">
         <v>36</v>
       </c>
     </row>

--- a/data_raw/VN_BMI_2020-2021.xlsx
+++ b/data_raw/VN_BMI_2020-2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rapeek/Documents/github/van_norden_aquabio/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDEF85-A682-8D49-B6AF-FB8AE0056DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200E838C-CC25-284C-884F-440DF3CB70E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="500" windowWidth="35600" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="500" windowWidth="22820" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAFIT level 2a" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="182">
   <si>
     <t>Date:</t>
   </si>
@@ -695,12 +695,15 @@
   <si>
     <t>metric</t>
   </si>
+  <si>
+    <t>Dominant Taxa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +798,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -994,7 +1005,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1031,6 +1042,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="173">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1542,13 +1554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE91"/>
+  <dimension ref="A1:AE92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="G61" sqref="G61:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3720,23 +3732,23 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
         <f>SUM(H$4:H$54)</f>
         <v>617</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
         <f>SUM(J$4:J$54)</f>
         <v>626</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
         <f>SUM(L$4:L$54)</f>
         <v>608</v>
       </c>
@@ -3954,37 +3966,34 @@
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="24"/>
+      <c r="F61" s="20"/>
       <c r="G61" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="23">
-        <f>SUMPRODUCT($F$4:$F$54/H$55,H$4:H$54)</f>
-        <v>5.9983792544570518</v>
+        <v>181</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="I61" s="24"/>
-      <c r="J61" s="23">
-        <f>SUMPRODUCT($F$4:$F$54/J$55,J$4:J$54)</f>
-        <v>3.5543130990415328</v>
-      </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="23">
-        <f>SUMPRODUCT($F$4:$F$54/L$55,L$4:L$54)</f>
-        <v>4.6085526315789469</v>
-      </c>
-      <c r="M61" s="7"/>
+      <c r="J61" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="20"/>
+      <c r="L61" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="7"/>
+      <c r="O61" s="2"/>
       <c r="P61" s="6"/>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="2"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="7"/>
+      <c r="S61" s="2"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="7"/>
+      <c r="W61" s="2"/>
       <c r="X61" s="6"/>
-      <c r="Y61" s="7"/>
+      <c r="Y61" s="2"/>
       <c r="AD61" s="6"/>
       <c r="AE61" s="6"/>
     </row>
@@ -3993,34 +4002,37 @@
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62" s="23">
-        <v>1.2760620917302135</v>
-      </c>
-      <c r="I62" s="20"/>
+        <f>SUMPRODUCT($F$4:$F$54/H$55,H$4:H$54)</f>
+        <v>5.9983792544570518</v>
+      </c>
+      <c r="I62" s="24"/>
       <c r="J62" s="23">
-        <v>1.2086277704129487</v>
-      </c>
-      <c r="K62" s="20"/>
-      <c r="L62" s="25">
-        <v>2.4359164787289909</v>
-      </c>
-      <c r="M62" s="2"/>
+        <f>SUMPRODUCT($F$4:$F$54/J$55,J$4:J$54)</f>
+        <v>3.5543130990415328</v>
+      </c>
+      <c r="K62" s="24"/>
+      <c r="L62" s="23">
+        <f>SUMPRODUCT($F$4:$F$54/L$55,L$4:L$54)</f>
+        <v>4.6085526315789469</v>
+      </c>
+      <c r="M62" s="7"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="2"/>
+      <c r="O62" s="7"/>
       <c r="P62" s="6"/>
-      <c r="Q62" s="2"/>
+      <c r="Q62" s="7"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="2"/>
+      <c r="S62" s="7"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="2"/>
+      <c r="W62" s="7"/>
       <c r="X62" s="6"/>
-      <c r="Y62" s="2"/>
+      <c r="Y62" s="7"/>
       <c r="AD62" s="6"/>
       <c r="AE62" s="6"/>
     </row>
@@ -4028,21 +4040,21 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="E63" s="24"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="26" t="s">
-        <v>50</v>
+      <c r="G63" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="H63" s="23">
-        <v>15</v>
+        <v>1.2760620917302135</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="23">
-        <v>15</v>
+        <v>1.2086277704129487</v>
       </c>
       <c r="K63" s="20"/>
-      <c r="L63" s="23">
-        <v>12.5</v>
+      <c r="L63" s="25">
+        <v>2.4359164787289909</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="6"/>
@@ -4051,160 +4063,148 @@
       <c r="Q63" s="2"/>
       <c r="R63" s="6"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
       <c r="W63" s="2"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="2"/>
-      <c r="AD63" s="8"/>
-      <c r="AE63" s="8"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="20"/>
       <c r="G64" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H64" s="27">
-        <f>H55/H63*100</f>
-        <v>4113.333333333333</v>
+        <v>50</v>
+      </c>
+      <c r="H64" s="23">
+        <v>15</v>
       </c>
       <c r="I64" s="20"/>
-      <c r="J64" s="27">
-        <f>634/J63*100</f>
-        <v>4226.666666666667</v>
+      <c r="J64" s="23">
+        <v>15</v>
       </c>
       <c r="K64" s="20"/>
-      <c r="L64" s="27">
-        <f>631/L63*100</f>
-        <v>5048</v>
+      <c r="L64" s="23">
+        <v>12.5</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="8"/>
+      <c r="N64" s="6"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="8"/>
+      <c r="P64" s="6"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="8"/>
+      <c r="R64" s="6"/>
       <c r="S64" s="2"/>
       <c r="T64" s="8"/>
-      <c r="U64" s="2"/>
+      <c r="U64" s="8"/>
       <c r="V64" s="8"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="8"/>
+      <c r="X64" s="6"/>
       <c r="Y64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" s="27">
+        <f>H55/H64*100</f>
+        <v>4113.333333333333</v>
+      </c>
+      <c r="I65" s="20"/>
+      <c r="J65" s="27">
+        <f>634/J64*100</f>
+        <v>4226.666666666667</v>
+      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="27">
+        <f>631/L64*100</f>
+        <v>5048</v>
+      </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="N65" s="8"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="P65" s="8"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="R65" s="8"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
+      <c r="T65" s="8"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
+      <c r="V65" s="8"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
+      <c r="X65" s="8"/>
       <c r="Y65" s="2"/>
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="8">
-        <v>2</v>
-      </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>3</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8">
-        <v>13</v>
-      </c>
-      <c r="M66" s="2">
-        <v>5</v>
-      </c>
-      <c r="N66" s="8"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="8"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="8"/>
+      <c r="R66" s="2"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="8"/>
+      <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="AD66" s="8"/>
+      <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>62</v>
+      <c r="A67" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="9" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="8">
-        <f>COUNT(H34:H40)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" s="2">
         <v>0</v>
       </c>
       <c r="J67" s="8">
-        <f>COUNT(J34:J40)</f>
+        <v>3</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8">
+        <v>13</v>
+      </c>
+      <c r="M67" s="2">
         <v>5</v>
-      </c>
-      <c r="K67" s="2">
-        <v>9</v>
-      </c>
-      <c r="L67" s="8">
-        <f>COUNT(L34:L40)</f>
-        <v>4</v>
-      </c>
-      <c r="M67" s="2">
-        <v>7</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="2"/>
@@ -4222,32 +4222,37 @@
       <c r="AE67" s="2"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="8">
-        <v>2</v>
+        <f>COUNT(H34:H40)</f>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" s="8">
+        <f>COUNT(J34:J40)</f>
+        <v>5</v>
+      </c>
+      <c r="K68" s="2">
+        <v>9</v>
+      </c>
+      <c r="L68" s="8">
+        <f>COUNT(L34:L40)</f>
         <v>4</v>
       </c>
-      <c r="K68" s="2">
-        <v>4</v>
-      </c>
-      <c r="L68" s="8">
-        <v>10</v>
-      </c>
       <c r="M68" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="2"/>
@@ -4269,30 +4274,28 @@
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="8">
-        <f>SUMIF($F$4:$F$54,"&lt;3",H$4:H$54)/H$55*100</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="8">
-        <f>SUMIF($F$4:$F$54,"&lt;3",J$4:J$54)/J$55*100</f>
-        <v>6.5495207667731634</v>
+        <v>4</v>
       </c>
       <c r="K69" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M69" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="2"/>
@@ -4314,31 +4317,30 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="9" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",H$4:H$54)/H$55*100</f>
+        <f>SUMIF($F$4:$F$54,"&lt;3",H$4:H$54)/H$55*100</f>
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",J$4:J$54)/J$55*100</f>
-        <v>0.47923322683706071</v>
+        <f>SUMIF($F$4:$F$54,"&lt;3",J$4:J$54)/J$55*100</f>
+        <v>6.5495207667731634</v>
       </c>
       <c r="K70" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" s="8">
-        <f>SUMIF($G$4:$G$54,"sc",L$4:L$54)/L$55*100</f>
-        <v>3.125</v>
+        <v>22</v>
       </c>
       <c r="M70" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="2"/>
@@ -4360,28 +4362,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="8">
-        <v>4.3760129659643443</v>
+        <f>SUMIF($G$4:$G$54,"sc",H$4:H$54)/H$55*100</f>
+        <v>0</v>
       </c>
       <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
+        <f>SUMIF($G$4:$G$54,"sc",J$4:J$54)/J$55*100</f>
+        <v>0.47923322683706071</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="8">
+        <f>SUMIF($G$4:$G$54,"sc",L$4:L$54)/L$55*100</f>
+        <v>3.125</v>
+      </c>
+      <c r="M71" s="2">
         <v>2</v>
-      </c>
-      <c r="J71" s="8">
-        <v>4.6325878594249197</v>
-      </c>
-      <c r="K71" s="2">
-        <v>2</v>
-      </c>
-      <c r="L71" s="8">
-        <v>17.763157894736842</v>
-      </c>
-      <c r="M71" s="2">
-        <v>8</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="2"/>
@@ -4403,28 +4408,28 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="8">
-        <v>0</v>
+        <v>4.3760129659643443</v>
       </c>
       <c r="I72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" s="8">
-        <v>11.76470588235294</v>
+        <v>4.6325878594249197</v>
       </c>
       <c r="K72" s="2">
+        <v>2</v>
+      </c>
+      <c r="L72" s="8">
+        <v>17.763157894736842</v>
+      </c>
+      <c r="M72" s="2">
         <v>8</v>
-      </c>
-      <c r="L72" s="8">
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="M72" s="2">
-        <v>2</v>
       </c>
       <c r="N72" s="8"/>
       <c r="O72" s="2"/>
@@ -4446,28 +4451,28 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="8">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <v>11.76470588235294</v>
+      </c>
+      <c r="K73" s="2">
+        <v>8</v>
+      </c>
+      <c r="L73" s="8">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="M73" s="2">
         <v>2</v>
-      </c>
-      <c r="J73" s="8">
-        <v>29.411764705882355</v>
-      </c>
-      <c r="K73" s="2">
-        <v>6</v>
-      </c>
-      <c r="L73" s="8">
-        <v>15.151515151515152</v>
-      </c>
-      <c r="M73" s="2">
-        <v>8</v>
       </c>
       <c r="N73" s="8"/>
       <c r="O73" s="2"/>
@@ -4489,39 +4494,42 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="H74" s="8">
+        <v>50</v>
+      </c>
       <c r="I74" s="2">
-        <f>SUM(I66:I73)*1.25</f>
-        <v>8.75</v>
-      </c>
-      <c r="J74" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="J74" s="8">
+        <v>29.411764705882355</v>
+      </c>
       <c r="K74" s="2">
-        <f>SUM(K66:K73)*1.25</f>
-        <v>41.25</v>
-      </c>
-      <c r="L74" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="L74" s="8">
+        <v>15.151515151515152</v>
+      </c>
       <c r="M74" s="2">
-        <f>SUM(M66:M73)*1.25</f>
-        <v>60</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="N74" s="8"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
+      <c r="P74" s="8"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="R74" s="8"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
+      <c r="X74" s="8"/>
       <c r="Y74" s="2"/>
-      <c r="AD74" s="2"/>
+      <c r="AD74" s="8"/>
       <c r="AE74" s="2"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
@@ -4529,17 +4537,26 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="I75" s="2">
+        <f>SUM(I67:I74)*1.25</f>
+        <v>8.75</v>
+      </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="2">
+        <f>SUM(K67:K74)*1.25</f>
+        <v>41.25</v>
+      </c>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="2">
+        <f>SUM(M67:M74)*1.25</f>
+        <v>60</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -4556,75 +4573,106 @@
       <c r="AE75" s="2"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4632,7 +4680,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="L67" formulaRange="1"/>
+    <ignoredError sqref="L68" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4647,10 +4695,10 @@
   <dimension ref="A1:AB71"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36:J36"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6273,12 +6321,19 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="G45" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="32"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
